--- a/Libro1 - copia.xlsx
+++ b/Libro1 - copia.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\proyectoalmacen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Desktop\proyecto_almacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fichas" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
-  <si>
-    <t>id_ficha</t>
-  </si>
-  <si>
-    <t>nombre_ficha</t>
-  </si>
-  <si>
-    <t>especialidad</t>
-  </si>
-  <si>
-    <t>instructor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="101">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -47,12 +36,6 @@
     <t>fecha_final</t>
   </si>
   <si>
-    <t>horario</t>
-  </si>
-  <si>
-    <t>tipo_formacion</t>
-  </si>
-  <si>
     <t>analisis y desarrollo de sistemas de informacion</t>
   </si>
   <si>
@@ -281,20 +264,99 @@
     <t>jhon kevin florez pena</t>
   </si>
   <si>
-    <t>numero_documento</t>
+    <t>FICHA</t>
+  </si>
+  <si>
+    <t>NOMBRE FICHA</t>
+  </si>
+  <si>
+    <t>ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>INSTRUCTOR</t>
+  </si>
+  <si>
+    <t>NUMERO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>TIPO FORMACION</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>VINCULACION</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>CELULAR</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Tec</t>
+  </si>
+  <si>
+    <t>camilo@mail.com</t>
+  </si>
+  <si>
+    <t>NUMERO DOCUMENTO INS</t>
+  </si>
+  <si>
+    <t>ESPECIALIDAD INS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,15 +379,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,52 +689,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="6"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,31 +743,31 @@
         <v>1132816</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
         <v>1053811426</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>42471</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>43020</v>
       </c>
       <c r="H2" s="1">
         <v>43201</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,31 +775,31 @@
         <v>1323395</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
         <v>1053811426</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>42842</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>43572</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -723,31 +807,31 @@
         <v>1368665</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
         <v>1053811426</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>42842</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -755,31 +839,31 @@
         <v>1375843</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>75091293</v>
-      </c>
-      <c r="F5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>16077061</v>
+      </c>
+      <c r="F5" s="7">
         <v>42842</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -787,31 +871,31 @@
         <v>1094381</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
         <v>1053770404</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>42943</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -819,31 +903,31 @@
         <v>1261608</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>10245454</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <v>43338</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,31 +935,31 @@
         <v>1261604</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
         <v>75091846</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="1">
         <v>43216</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -883,31 +967,31 @@
         <v>1301351</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6">
         <v>10245454</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>42653</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
+      <c r="G9" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="1">
         <v>43080</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -915,31 +999,31 @@
         <v>1368569</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
         <v>1053782472</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>42842</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
+      <c r="G10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,31 +1031,31 @@
         <v>1075391</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
         <v>1053770404</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>43006</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -979,31 +1063,31 @@
         <v>1323382</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6">
         <v>1053770404</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>42758</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
+      <c r="G12" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>43669</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1011,31 +1095,31 @@
         <v>1368604</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6">
         <v>75091846</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>42842</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
+      <c r="G13" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1043,31 +1127,31 @@
         <v>1132795</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6">
         <v>75096903</v>
       </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="1">
         <v>43019</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,31 +1159,31 @@
         <v>1132701</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6">
         <v>16071103</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,31 +1191,31 @@
         <v>1182104</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>10271981</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H16" s="1">
         <v>42927</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,31 +1223,31 @@
         <v>1197616</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6">
         <v>10279373</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <v>42562</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>14</v>
+      <c r="G17" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <v>43111</v>
       </c>
-      <c r="I17" t="s">
-        <v>12</v>
+      <c r="I17" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1171,31 +1255,31 @@
         <v>1368653</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6">
         <v>75091293</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>42842</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,31 +1287,31 @@
         <v>1132756</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6">
         <v>10279010</v>
       </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7">
         <v>43020</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1235,31 +1319,31 @@
         <v>1197544</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6">
         <v>30287195</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="1">
         <v>43111</v>
       </c>
-      <c r="I20" t="s">
-        <v>12</v>
+      <c r="I20" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1267,31 +1351,31 @@
         <v>1197576</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6">
         <v>94283555</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7">
         <v>43111</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1299,31 +1383,31 @@
         <v>1368673</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
+        <v>47</v>
+      </c>
+      <c r="E22" s="6">
         <v>75073330</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="7">
         <v>42842</v>
       </c>
-      <c r="G22" t="s">
-        <v>14</v>
+      <c r="G22" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1331,31 +1415,31 @@
         <v>1368529</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23">
+        <v>49</v>
+      </c>
+      <c r="E23" s="6">
         <v>75073330</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="7">
         <v>42842</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1363,31 +1447,31 @@
         <v>1323358</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6">
         <v>30397958</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>42758</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>43669</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1395,31 +1479,31 @@
         <v>1367722</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25">
+        <v>52</v>
+      </c>
+      <c r="E25" s="6">
         <v>30287195</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="7">
         <v>42838</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <v>43356</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1427,31 +1511,31 @@
         <v>1114874</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="E26" s="6">
         <v>75081636</v>
       </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
+      <c r="F26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H26" s="1">
         <v>43056</v>
       </c>
-      <c r="I26" t="s">
-        <v>12</v>
+      <c r="I26" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1459,31 +1543,31 @@
         <v>1343933</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="E27" s="6">
         <v>11224476</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7">
         <v>42691</v>
       </c>
       <c r="H27" s="1">
         <v>42872</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
+      <c r="I27" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,31 +1575,31 @@
         <v>1368501</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="E28" s="6">
         <v>1085297027</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="7">
         <v>42842</v>
       </c>
-      <c r="G28" t="s">
-        <v>14</v>
+      <c r="G28" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1523,31 +1607,31 @@
         <v>1368642</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6">
         <v>9817289</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="7">
         <v>42842</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
+      <c r="G29" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1555,31 +1639,31 @@
         <v>1368642</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="E30" s="6">
         <v>9817289</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="7">
         <v>42842</v>
       </c>
-      <c r="G30" t="s">
-        <v>14</v>
+      <c r="G30" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,31 +1671,31 @@
         <v>1306630</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31">
+        <v>78</v>
+      </c>
+      <c r="E31" s="6">
         <v>16073677</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="7">
         <v>42804</v>
       </c>
-      <c r="G31" t="s">
-        <v>14</v>
+      <c r="G31" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1619,31 +1703,31 @@
         <v>1368498</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32">
+        <v>78</v>
+      </c>
+      <c r="E32" s="6">
         <v>16073677</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="7">
         <v>42842</v>
       </c>
-      <c r="G32" t="s">
-        <v>14</v>
+      <c r="G32" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1651,31 +1735,31 @@
         <v>1369525</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6">
         <v>30307343</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="7">
         <v>42842</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
+      <c r="G33" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>43268</v>
       </c>
-      <c r="I33" t="s">
-        <v>20</v>
+      <c r="I33" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1683,31 +1767,31 @@
         <v>1369525</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6">
         <v>30307343</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,31 +1799,31 @@
         <v>1368558</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>98392877</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="7">
         <v>42842</v>
       </c>
-      <c r="G35" t="s">
-        <v>14</v>
+      <c r="G35" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1747,31 +1831,31 @@
         <v>1368558</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>98392877</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="7">
         <v>42842</v>
       </c>
-      <c r="G36" t="s">
-        <v>14</v>
+      <c r="G36" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1779,31 +1863,31 @@
         <v>1343983</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6">
         <v>75081636</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
+      <c r="F37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="1">
         <v>43055</v>
       </c>
-      <c r="I37" t="s">
-        <v>12</v>
+      <c r="I37" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1811,31 +1895,31 @@
         <v>1374264</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38">
+        <v>74</v>
+      </c>
+      <c r="E38" s="6">
         <v>30292725</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="7">
         <v>42786</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <v>42875</v>
       </c>
       <c r="H38" s="1">
         <v>42967</v>
       </c>
-      <c r="I38" t="s">
-        <v>15</v>
+      <c r="I38" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,31 +1927,31 @@
         <v>1362328</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39">
+        <v>75</v>
+      </c>
+      <c r="E39" s="6">
         <v>25232397</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="7">
         <v>42772</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="7">
         <v>42861</v>
       </c>
       <c r="H39" s="1">
         <v>42953</v>
       </c>
-      <c r="I39" t="s">
-        <v>15</v>
+      <c r="I39" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1875,35 +1959,118 @@
         <v>1343061</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40">
+        <v>77</v>
+      </c>
+      <c r="E40" s="6">
         <v>1110506666</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="7">
         <v>42689</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="7">
         <v>42870</v>
       </c>
       <c r="H40" s="1">
         <v>42993</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
+      <c r="I40" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>1053881</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3212001</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>